--- a/data/trans_bre/P13A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P13A_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-25,93</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-19,22</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-15,85</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-50,78%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-58,7%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-70,31%</t>
+          <t>-34,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>114,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>-9,43%</t>
         </is>
       </c>
     </row>
@@ -694,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-90,99; 50,94</t>
+          <t>-0,25; 0,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-87,41; 29,01</t>
+          <t>-0,45; 0,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 2,9</t>
+          <t>-0,84; 0,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 16,37</t>
+          <t>-0,22; 2,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 9,96</t>
+          <t>-1,89; 1,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-52,72; 269,09</t>
+          <t>-25,76; 543,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 103,06</t>
+          <t>-53,72; 99,09</t>
         </is>
       </c>
     </row>
@@ -756,32 +756,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>30,56</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-22,03</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,5</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>-20,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,45%</t>
+          <t>65,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,38%</t>
+          <t>-72,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>47,31%</t>
         </is>
       </c>
     </row>
@@ -814,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 81,59</t>
+          <t>-0,89; 0,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 27,84</t>
+          <t>-0,47; 1,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 0,47</t>
+          <t>-1,66; 0,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 17,38</t>
+          <t>-1,46; 4,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 85,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-65,38; 245,99</t>
+          <t>-52,81; 453,11</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,75</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,89</t>
+          <t>0,0; 3,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 41,56</t>
+          <t>0,42; 4,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,5%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-57,01%</t>
+          <t>-59,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>47,22%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -1054,32 +1054,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 41,4</t>
+          <t>-0,31; 0,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 24,58</t>
+          <t>-0,4; 0,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 7,06</t>
+          <t>-0,37; 0,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 9,12</t>
+          <t>-0,3; 1,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 8,65</t>
+          <t>-1,52; 1,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1089,17 +1089,24 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 157,85</t>
+          <t>-72,72; 319,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 168,47</t>
+          <t>-32,06; 233,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-41,45; 81,85</t>
+          <t>-43,34; 87,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13A_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P13A_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>90,04%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-19,22%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-34,26%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>114,16%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-9,43%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-25.93929253084153</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-15.37865258096837</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-15.85128845143347</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.771005386693517</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.007484407531699322</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.5078966188528512</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.5305583331406898</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.7032919403742431</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2017293073664991</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.0005430400015490379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 0,61</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 0,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,84; 0,39</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 2,02</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 1,66</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-25,76; 543,46</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-53,72; 99,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-89.98701020681827</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-86.24510946612789</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-40.97719835729306</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-11.31813858335497</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-8.194442222248579</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.5146030032041853</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4629898048262104</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>49.83622776657452</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>31.98922342972261</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.048356623326441</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.73825297027178</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.400416025694183</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>2.56402704140715</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.005136945202347</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-20,88%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>65,84%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-72,8%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>47,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 0,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 0,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 1,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 0,07</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 4,45</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-52,81; 453,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>30.56151707793164</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-22.45311636026902</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.040155343290834</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-6.473086354810782</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.820125794825987</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.83785845230561</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.650522991667528</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.7064897865238363</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1937380516749858</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-54.08915569544561</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="n">
+        <v>-13.05641213289922</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-16.22273855186945</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-11.9118745811458</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="n">
+        <v>-0.5804864503724304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,81</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 4,44</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>81.57864991695784</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="n">
+        <v>30.20399807218508</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2398648337220574</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>17.29586863232687</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="n">
+        <v>3.039783483223182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +847,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,34%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-59,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>21,78%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>47,22%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="n">
+        <v>9.687194362706354</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>16.68836294554439</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 0,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 0,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 0,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 1,0</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,52; 1,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-72,72; 319,56</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-32,06; 233,29</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-43,34; 87,66</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.701779338572006</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="n">
+        <v>47.48844917188173</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>41.65033664741003</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-3.779672892048103</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-13.64735605149577</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.516128829262438</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.941924510014831</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.712864372205263</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.09494863928554646</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.5457015796409966</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2661448738000565</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.2025860678469354</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.05111583314748216</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-46.69048892046983</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-57.19696148976722</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-18.54918381668989</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.755668942820595</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.753396038164265</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8117738584599058</v>
+      </c>
+      <c r="I14" s="6" t="inlineStr"/>
+      <c r="J14" s="6" t="n">
+        <v>-0.7723235221712529</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4221988139708633</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.3972581751845957</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>44.2503008770937</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>22.93669825704466</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.814447339283462</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.870768194878753</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.458428136496412</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>4.340460565804637</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>1.410473664866072</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.551927188217374</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.8500039491444582</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1112,13 +1037,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
